--- a/Documents/simulacaodoentes.xlsx
+++ b/Documents/simulacaodoentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaob\OneDrive\Ambiente de Trabalho\UBI\3 2S\COPDMobileApp-UBI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC8796A-F3EA-4F5B-93AC-BD2D98FB7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F4019-4F41-4676-814D-357FEA1E4C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E78E22FD-07D3-4E4D-B139-0900B51A46B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E78E22FD-07D3-4E4D-B139-0900B51A46B9}"/>
   </bookViews>
   <sheets>
     <sheet name="parâmetros" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>pO2</t>
   </si>
@@ -188,6 +188,31 @@
   </si>
   <si>
     <t>37.8</t>
+  </si>
+  <si>
+    <t>1wv_semvariavel:74</t>
+  </si>
+  <si>
+    <t>2wv_semvariavel:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+E/Wellness Points: 6MWT: 58.0
+     CAT:94.0
+     1MSTST:50.3
+     VARIABLES:0.0</t>
+  </si>
+  <si>
+    <t>E/Wellness Points: 6MWT: 58.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     CAT:7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1MSTST:50.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     VARIABLES:0.0</t>
   </si>
 </sst>
 </file>
@@ -247,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -255,6 +280,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD57B25B-20E9-4C32-8EAF-71987A85E754}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1251,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3E3826-57EF-4325-8BC1-59CC34AE98EA}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H32" activeCellId="1" sqref="K35 H32:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <v>0.82291666666666663</v>
@@ -1507,7 +1536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>45081</v>
       </c>
@@ -1527,7 +1556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <v>0.52083333333333337</v>
@@ -1545,7 +1574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>0.65625</v>
@@ -1563,7 +1592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>0.33333333333333331</v>
@@ -1581,7 +1610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45078</v>
       </c>
@@ -1601,7 +1630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6">
         <v>0.65625</v>
@@ -1619,7 +1648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>0.8125</v>
@@ -1637,7 +1666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <v>0.82291666666666663</v>
@@ -1655,7 +1684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>0.83333333333333337</v>
@@ -1673,7 +1702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6">
         <v>0.84375</v>
@@ -1691,7 +1720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -1709,7 +1738,63 @@
         <v>28</v>
       </c>
     </row>
+    <row r="31" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/simulacaodoentes.xlsx
+++ b/Documents/simulacaodoentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaob\OneDrive\Ambiente de Trabalho\UBI\3 2S\COPDMobileApp-UBI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F4019-4F41-4676-814D-357FEA1E4C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98FF8B-AC71-4838-A544-F6A0C78F9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E78E22FD-07D3-4E4D-B139-0900B51A46B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E78E22FD-07D3-4E4D-B139-0900B51A46B9}"/>
   </bookViews>
   <sheets>
     <sheet name="parâmetros" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>pO2</t>
   </si>
@@ -213,6 +213,30 @@
   </si>
   <si>
     <t xml:space="preserve">     VARIABLES:0.0</t>
+  </si>
+  <si>
+    <t>Ultimas 19</t>
+  </si>
+  <si>
+    <t>Ultimas 07</t>
+  </si>
+  <si>
+    <t>Ultimas 5:15</t>
+  </si>
+  <si>
+    <t>Ultimas 5:30</t>
+  </si>
+  <si>
+    <t>Ultimas 5:45</t>
+  </si>
+  <si>
+    <t>Imaginemos que está às 23:08</t>
+  </si>
+  <si>
+    <t>:30</t>
+  </si>
+  <si>
+    <t>Ultimas 14</t>
   </si>
 </sst>
 </file>
@@ -794,10 +818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD57B25B-20E9-4C32-8EAF-71987A85E754}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,6 +1296,44 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1282,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3E3826-57EF-4325-8BC1-59CC34AE98EA}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" activeCellId="1" sqref="K35 H32:L35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/simulacaodoentes.xlsx
+++ b/Documents/simulacaodoentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaob\OneDrive\Ambiente de Trabalho\UBI\3 2S\COPDMobileApp-UBI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98FF8B-AC71-4838-A544-F6A0C78F9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D79205-E43F-494E-9878-BC0D36DB2561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E78E22FD-07D3-4E4D-B139-0900B51A46B9}"/>
   </bookViews>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD57B25B-20E9-4C32-8EAF-71987A85E754}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,10 +890,7 @@
         <v>38</v>
       </c>
       <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1344,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3E3826-57EF-4325-8BC1-59CC34AE98EA}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,10 +1411,7 @@
         <v>38</v>
       </c>
       <c r="I4">
-        <v>33</v>
-      </c>
-      <c r="J4">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
